--- a/team03.xlsx
+++ b/team03.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2449,7 +2449,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/team03.xlsx
+++ b/team03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="guns" sheetId="1" r:id="rId1"/>
@@ -93,496 +93,496 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HK416A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK416C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G36C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMP45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMP9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSG-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAR-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAR-H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FiveSeveN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-埃斯塔勒國營工廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M93R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beretta-貝瑞塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desert Eagle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMI-以色列軍事工業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UZI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L115A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-精密國際</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrett-巴雷特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ-烏爾斯基.布羅德兵工廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ-805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ-TSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ-EVO3 A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benelli-M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benelli-M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benelli-M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benelli-M4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benelli-伯奈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hecate-338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hecate-II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機槍 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝鋒槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精準射手步槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文欄位名稱</t>
+  </si>
+  <si>
+    <t>英文欄位名稱</t>
+  </si>
+  <si>
+    <t>資料型態</t>
+  </si>
+  <si>
+    <t>屬性</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>gun_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caliber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSIGNED</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto-increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edited_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍械編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠牌 (外部鍵) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠牌編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號(主鍵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLT-柯爾特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kalashnikov-卡拉什尼科夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>H&amp;K-黑克勒-科赫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HK416A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HK417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HK416C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G36C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMP45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMP9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSG-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HK45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAR-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAR-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FiveSeveN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-埃斯塔勒國營工廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glock-35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M93R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S682</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S686</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XM4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beretta-貝瑞塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Glock-克拉克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MPX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIG716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIG Sauer-西格&amp;紹爾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desert Eagle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMI-以色列軍事工業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UZI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Negev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L115A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI-精密國際</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M82A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XM500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrett-巴雷特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ-烏爾斯基.布羅德兵工廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ-805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ-TSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZ-EVO3 A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benelli-M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benelli-M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benelli-M3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benelli-M4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benelli-伯奈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hecate-338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hecate-II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">機槍 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衝鋒槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精準射手步槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散彈槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙擊槍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槍名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLT-柯爾特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在地區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG553</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kalashnikov-卡拉什尼科夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文欄位名稱</t>
-  </si>
-  <si>
-    <t>英文欄位名稱</t>
-  </si>
-  <si>
-    <t>資料型態</t>
-  </si>
-  <si>
-    <t>屬性</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>gun_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caliber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSIGNED</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto-increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編輯時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edited_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槍械編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槍名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槍種</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">廠牌 (外部鍵) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠牌編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號(主鍵)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -980,13 +980,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>7.62</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>7.62</v>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>7.62</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>7.62</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>7.62</v>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>7.62</v>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>7.62</v>
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>7.62</v>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>7.62</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>7.62</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>7.62</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>7.62</v>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>7.62</v>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>7.62</v>
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>7.62</v>
@@ -1255,13 +1255,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>7.62</v>
@@ -1272,13 +1272,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>7.62</v>
@@ -1289,13 +1289,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>7.62</v>
@@ -1306,13 +1306,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>7.62</v>
@@ -1323,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>7.62</v>
@@ -1340,13 +1340,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>7.62</v>
@@ -1357,13 +1357,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>7.62</v>
@@ -1374,13 +1374,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>7.62</v>
@@ -1391,13 +1391,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>7.62</v>
@@ -1408,13 +1408,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>7.62</v>
@@ -1425,13 +1425,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>7.62</v>
@@ -1442,13 +1442,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28">
         <v>7.62</v>
@@ -1459,13 +1459,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <v>7.62</v>
@@ -1476,13 +1476,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>7.62</v>
@@ -1493,13 +1493,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>7.62</v>
@@ -1510,13 +1510,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>7.62</v>
@@ -1527,13 +1527,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>7.62</v>
@@ -1544,13 +1544,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E34">
         <v>7.62</v>
@@ -1561,13 +1561,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35">
         <v>7.62</v>
@@ -1578,13 +1578,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>7.62</v>
@@ -1595,13 +1595,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>7.62</v>
@@ -1612,13 +1612,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>7.62</v>
@@ -1629,13 +1629,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <v>7.62</v>
@@ -1646,13 +1646,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>7.62</v>
@@ -1663,13 +1663,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <v>7.62</v>
@@ -1680,13 +1680,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <v>7.62</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>7.62</v>
@@ -1714,13 +1714,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>7.62</v>
@@ -1731,13 +1731,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>7.62</v>
@@ -1748,13 +1748,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>7.62</v>
@@ -1765,13 +1765,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>7.62</v>
@@ -1782,13 +1782,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E48">
         <v>7.62</v>
@@ -1799,13 +1799,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E49">
         <v>7.62</v>
@@ -1816,13 +1816,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>7.62</v>
@@ -1833,13 +1833,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>7.62</v>
@@ -1850,13 +1850,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E52">
         <v>7.62</v>
@@ -1867,13 +1867,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E53">
         <v>7.62</v>
@@ -1884,13 +1884,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>7.62</v>
@@ -1901,13 +1901,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E55">
         <v>7.62</v>
@@ -1918,13 +1918,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E56">
         <v>7.62</v>
@@ -1935,13 +1935,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>7.62</v>
@@ -1952,13 +1952,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E58">
         <v>7.62</v>
@@ -1969,13 +1969,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E59">
         <v>7.62</v>
@@ -1986,13 +1986,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60">
         <v>7.62</v>
@@ -2003,13 +2003,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E61">
         <v>7.62</v>
@@ -2020,13 +2020,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <v>7.62</v>
@@ -2037,13 +2037,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E63">
         <v>7.62</v>
@@ -2054,13 +2054,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>7.62</v>
@@ -2071,13 +2071,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E65">
         <v>7.62</v>
@@ -2088,13 +2088,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E66">
         <v>7.62</v>
@@ -2105,13 +2105,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67">
         <v>7.62</v>
@@ -2122,13 +2122,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E68">
         <v>7.62</v>
@@ -2139,13 +2139,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <v>7.62</v>
@@ -2156,13 +2156,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C70" s="1">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E70">
         <v>7.62</v>
@@ -2173,13 +2173,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C71" s="1">
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E71">
         <v>7.62</v>
@@ -2190,13 +2190,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E72">
         <v>7.62</v>
@@ -2207,13 +2207,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <v>7.62</v>
@@ -2224,13 +2224,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>7.62</v>
@@ -2241,13 +2241,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>7.62</v>
@@ -2258,13 +2258,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C76" s="1">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E76">
         <v>7.62</v>
@@ -2275,13 +2275,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E77">
         <v>7.62</v>
@@ -2312,129 +2312,129 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2448,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2461,13 +2461,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2637,98 +2637,98 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/team03.xlsx
+++ b/team03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="guns" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
   <si>
     <t>槍種</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,10 +435,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>gun_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +575,18 @@
   </si>
   <si>
     <t>SIG Sauer-西格&amp;紹爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,13 +984,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2299,7 +2303,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2332,64 +2336,61 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>112</v>
@@ -2397,44 +2398,47 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
         <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
         <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2448,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2461,10 +2465,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -2475,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
@@ -2486,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -2497,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -2519,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
@@ -2541,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -2623,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2657,36 +2661,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2694,41 +2698,41 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6">
